--- a/test/data.xlsx
+++ b/test/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="725" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" tabRatio="725" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="5" r:id="rId1"/>
@@ -1006,7 +1006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -1625,13 +1625,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
